--- a/Excel Files/data1.xlsx
+++ b/Excel Files/data1.xlsx
@@ -13,28 +13,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>james</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>Finance</t>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark </t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>abc456</t>
   </si>
   <si>
     <t>Hannah</t>
   </si>
   <si>
-    <t>HR</t>
+    <t>abc789</t>
   </si>
 </sst>
 </file>
